--- a/assets/Process_Folder/prompts.xlsx
+++ b/assets/Process_Folder/prompts.xlsx
@@ -14,11 +14,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>视频名称</t>
   </si>
   <si>
+    <t>line1</t>
+  </si>
+  <si>
+    <t>lin2</t>
+  </si>
+  <si>
     <t>视频时长</t>
   </si>
   <si>
@@ -40,7 +46,7 @@
     <t>0:12:57.563447</t>
   </si>
   <si>
-    <t>36分53秒</t>
+    <t>12分58秒</t>
   </si>
   <si>
     <t>步骤1：</t>
@@ -121,7 +127,7 @@
     <t>步骤1：你现在是我的“流水线剪辑数据员”。请忽略之前的视频内容，仅针对刚刚上传的这个视频，进行分析帮我分析所有提供的视频的镜头语言，包括镜头开始和结束时间，画面描述，台词景别，镜头焦段判断，bqm和音效，以表格的形式输出,并且把所有的文案的英文翻译成中文展示形式</t>
   </si>
   <si>
-    <t>步骤2：这个视频时长是36分53秒 检查刚刚分析的步骤1最后的镜头结束时间是否一致？ 如果有过长或者过短及时纠正</t>
+    <t>步骤2：这个视频时长是12分58秒 检查刚刚分析的步骤1最后的镜头结束时间是否一致？ 如果有过长或者过短及时纠正</t>
   </si>
   <si>
     <t>步骤3：视频是一个短剧，请帮我分析一下这个短剧的特点，还有他的高光片段，画面及人物关系，人物冲突,场景变化。</t>
@@ -662,9 +668,6 @@
 【输出格式】
 请直接输出表格，不要包含任何开场白或总结文字。表头如下：
 | start | end | folder1 | folder2 | folder3 | music | cover_time | title |</t>
-  </si>
-  <si>
-    <t>继续</t>
   </si>
 </sst>
 </file>
@@ -1022,13 +1025,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1047,219 +1050,220 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
         <v>8</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="F10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="F12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="6:7">
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="6:7">
+      <c r="F18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="6:7">
+      <c r="F19" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="6:7">
+      <c r="F20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7">
+      <c r="F21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="6:7">
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="6:7">
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="6:7">
+      <c r="F24" t="s">
+        <v>33</v>
+      </c>
+      <c r="G24" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="6:7">
+      <c r="F25" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="G25" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="6:7">
+      <c r="F26" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="D4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="D10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="D11" t="s">
-        <v>18</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="D12" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="D14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="D16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="4:5">
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="4:5">
-      <c r="D18" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="4:5">
-      <c r="D19" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" spans="4:5">
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="4:5">
-      <c r="D21" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="4:5">
-      <c r="D22" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="4:5">
-      <c r="D23" t="s">
-        <v>30</v>
-      </c>
-      <c r="E23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="4:5">
-      <c r="D24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="4:5">
-      <c r="D25" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="4:5">
-      <c r="D26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="5:5">
-      <c r="E34" t="s">
-        <v>59</v>
+      <c r="G26" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Process_Folder/prompts.xlsx
+++ b/assets/Process_Folder/prompts.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>视频名称</t>
   </si>
@@ -40,10 +40,13 @@
     <t>Unnamed: 5</t>
   </si>
   <si>
-    <t>Ex-Convict Nanny and Billionaire Single Dad.mp4</t>
-  </si>
-  <si>
-    <t>0:12:57.563447</t>
+    <t>Episode3.mp4</t>
+  </si>
+  <si>
+    <t>bat</t>
+  </si>
+  <si>
+    <t>01:59.4</t>
   </si>
   <si>
     <t>12分58秒</t>
@@ -1061,209 +1064,215 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>223</v>
+      </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="F4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="F5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="F6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="F7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="F8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="F9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="F10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="F11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="F12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="F13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="F14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="F15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="F16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="6:7">
       <c r="F17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="6:7">
       <c r="F18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="19" spans="6:7">
       <c r="F19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="20" spans="6:7">
       <c r="F20" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="6:7">
       <c r="F21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G21" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="6:7">
       <c r="F22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="6:7">
       <c r="F23" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="6:7">
       <c r="F24" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G24" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="6:7">
       <c r="F25" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G25" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="6:7">
       <c r="F26" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/assets/Process_Folder/prompts.xlsx
+++ b/assets/Process_Folder/prompts.xlsx
@@ -40,13 +40,13 @@
     <t>Unnamed: 5</t>
   </si>
   <si>
-    <t>Episode3.mp4</t>
+    <t>Episode1.mp4</t>
   </si>
   <si>
     <t>bat</t>
   </si>
   <si>
-    <t>01:59.4</t>
+    <t>03:32.5</t>
   </si>
   <si>
     <t>12分58秒</t>
